--- a/Analyzed/try2/data_2014.xlsx
+++ b/Analyzed/try2/data_2014.xlsx
@@ -541,13 +541,13 @@
         <v>882.491</v>
       </c>
       <c r="L2">
-        <v>80.60000000000001</v>
+        <v>2821</v>
       </c>
       <c r="M2">
         <v>59.3876147184214</v>
       </c>
       <c r="N2">
-        <v>66.84</v>
+        <v>1938.36</v>
       </c>
       <c r="O2">
         <v>931.05</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1705.345</v>
       </c>
       <c r="L3">
-        <v>82.60000000000001</v>
+        <v>2891</v>
       </c>
       <c r="M3">
         <v>55.592848472924</v>
       </c>
       <c r="N3">
-        <v>13.88</v>
+        <v>402.5199999999999</v>
       </c>
       <c r="O3">
         <v>939.1900000000001</v>
@@ -671,19 +671,19 @@
         <v>5</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1244.134</v>
       </c>
       <c r="L4">
-        <v>74.8</v>
+        <v>2618</v>
       </c>
       <c r="M4">
         <v>55.85497238908732</v>
       </c>
       <c r="N4">
-        <v>44.99</v>
+        <v>1304.71</v>
       </c>
       <c r="O4">
         <v>937.11</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>1915.716</v>
       </c>
       <c r="L5">
-        <v>67.90000000000001</v>
+        <v>2376.5</v>
       </c>
       <c r="M5">
         <v>64.47337036265135</v>
       </c>
       <c r="N5">
-        <v>19.73</v>
+        <v>572.17</v>
       </c>
       <c r="O5">
         <v>993.86</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>4</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1449.323</v>
       </c>
       <c r="L6">
-        <v>73.90000000000001</v>
+        <v>2586.5</v>
       </c>
       <c r="M6">
         <v>66.19209963071508</v>
       </c>
       <c r="N6">
-        <v>-4.239999999999998</v>
+        <v>-122.96</v>
       </c>
       <c r="O6">
         <v>1111.51</v>
@@ -996,13 +996,13 @@
         <v>1416.517</v>
       </c>
       <c r="L7">
-        <v>68.90000000000001</v>
+        <v>2411.5</v>
       </c>
       <c r="M7">
         <v>62.13276029299932</v>
       </c>
       <c r="N7">
-        <v>-16.93000000000001</v>
+        <v>-490.9700000000002</v>
       </c>
       <c r="O7">
         <v>1050.59</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1447.531</v>
       </c>
       <c r="L8">
-        <v>72.60000000000001</v>
+        <v>2541</v>
       </c>
       <c r="M8">
         <v>72.83003075990672</v>
       </c>
       <c r="N8">
-        <v>25.72</v>
+        <v>745.88</v>
       </c>
       <c r="O8">
         <v>1000.76</v>
@@ -1129,13 +1129,13 @@
         <v>3</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA8">
         <v>3</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>2</v>
@@ -1178,13 +1178,13 @@
         <v>1798.977</v>
       </c>
       <c r="L9">
-        <v>66.60000000000001</v>
+        <v>2331</v>
       </c>
       <c r="M9">
         <v>60.17287006480936</v>
       </c>
       <c r="N9">
-        <v>23.4</v>
+        <v>678.6</v>
       </c>
       <c r="O9">
         <v>867.86</v>
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>1159.914</v>
       </c>
       <c r="L10">
-        <v>64.3</v>
+        <v>2250.5</v>
       </c>
       <c r="M10">
         <v>73.7073368710509</v>
       </c>
       <c r="N10">
-        <v>-70.88000000000001</v>
+        <v>-2055.52</v>
       </c>
       <c r="O10">
         <v>1119.45</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
